--- a/tools/tisax/tisax-v6.0.2.xlsx
+++ b/tools/tisax/tisax-v6.0.2.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="library_content" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="controls" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="implementation_groups" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +512,7 @@
           <t xml:space="preserve">© 2023 ENX Association, an Association according to the French Law of 1901, registered under No. w923004198 at the Sous-préfecture of Boulogne-Billancourt, France.
 This work of ENX's Working Group ISA was provided to the VDA in the present version by the ENX Association for published by the VDA as the VDA ISA. It is made to all interested parties free of charge under the following licensing terms. The release in the VDA is done by the VDA's Working Group Information Security and Economic Protection. Publication takes place with the consent of the rights holder. The VDA is responsible for the publication of the VDA ISA.
 The Tab ""Data Protection"" is provided, owned and copyrighted by VERBAND DER AUTOMOBILINDUSTRIE e.V. (VDA, German Association of the Automotive Industry); Behrenstr. 35; 10117 Berlin"
-This work has been licensed under Creative Commons Attribution - No Derivative Works 4.0 International Public License. In addition, You are granted the right to distribute derivatives under certain terms as detailed in section 9 which are not part of the Creative Commons license. The complete and valid text of the license is to be found in line 17ff. 
+This work has been licensed under Creative Commons Attribution - No Derivative Works 4.0 International Public License. In addition, You are granted the right to distribute derivatives under certain terms as detailed in section 9 which are not part of the Creative Commons license. The complete and valid text of the license is to be found in line 17ff.
 </t>
         </is>
       </c>
@@ -595,17 +597,71 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>framework_min_score</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>framework_max_score</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>tab</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>controls</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>tab</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>tab</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>implementation_groups</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>implementation_groups</t>
         </is>
       </c>
     </row>
@@ -620,7 +676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:F295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +710,11 @@
           <t>description</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>implementation_groups</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -727,6 +788,11 @@
   - The requirements are adapted to the organization’s goals,
   - A policy is prepared and is released by the organization.
 + The policy includes objectives and the significance of information security within the organization.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -755,6 +821,11 @@
 + Employees and external business partners are informed of any changes relevant to them.</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -774,6 +845,11 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>+ Policies are published and implemented in the entire assessment scope.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SGA</t>
         </is>
       </c>
     </row>
@@ -866,6 +942,11 @@
 + The effectiveness of the ISMS is regularly reviewed by the management.</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -885,6 +966,11 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>+ The management system is approved by an entity that has the necessary authority for the entire assessment scope (i.e., all locations within the scope).</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>SGA</t>
         </is>
       </c>
     </row>
@@ -928,6 +1014,11 @@
 + The contact persons are known within the organization and to relevant business partners.</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -950,6 +1041,11 @@
   - Other relevant security roles are considered.</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -971,6 +1067,11 @@
           <t>+ An appropriate organizational separation of responsibilities should be established in order to avoid conflict of interests (separation of duties). (C, I, A)</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -990,6 +1091,11 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>+ A named person with overall responsibility for the management system exists and is available.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SGA</t>
         </is>
       </c>
     </row>
@@ -1048,6 +1154,11 @@
           <t>+ Projects are classified while taking into account the information security requirements.</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1071,6 +1182,11 @@
 + For identified information security risks, measures are derived and considered in the project.</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1090,6 +1206,11 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>+ The measures thus derived are reviewed regularly during the project and reassessed in case of changes to the assessment criteria. (C, I, A)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -1134,6 +1255,11 @@
 + The responsible organization fulfils its respective responsibilities.</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1154,6 +1280,11 @@
         <is>
           <t>+ In case of IT services, configuration has been conceived, implemented, and documented based on the necessary security requirements.
 + The responsible staff is adequately trained.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -1181,6 +1312,11 @@
 + Integration into local protective measures (such as secure authentication mechanisms) is established and documented. (C, I, A)</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1239,6 +1375,11 @@
   - A person responsible for these supporting assets is assigned.</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1260,6 +1401,11 @@
           <t>+ A catalogue of the relevant information assets exists:
   - The corresponding supporting assets are assigned to each relevant information asset,
   - The catalogue is subject to regular review.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -1328,6 +1474,11 @@
 + Specifications for the handling of supporting assets (e.g. identification, correct handling, transport, storage, return, deletion/disposal) depending on the classification of information assets are in place and implemented.</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1347,6 +1498,11 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>+ The protection goals of integrity and availability are taken into consideration.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -1408,6 +1564,11 @@
   - A risk assessment of the external IT services is available,
   - Legal, regulatory, and contractual requirements are considered.
 + The external IT services have been harmonized with the protection need of the processed information assets.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -1433,6 +1594,11 @@
 + External IT services and their approval are documented.
 + It is verified at regular intervals that only approved external IT services are used.
 </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -1478,6 +1644,11 @@
 + Software approval also applies to special purpose software such as maintenance tools</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1503,6 +1674,11 @@
 + Software versions and patch levels are known</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1522,6 +1698,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>+ Additional requirements for software use (e.g., need for control or monitoring of usage) are determined (if any) (C, I, A)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>very_high</t>
         </is>
       </c>
     </row>
@@ -1611,6 +1792,11 @@
 + A responsible person (risk owner) is assigned to each information security risk. This person is responsible for the assessment and handling of the information security risks.</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1636,6 +1822,11 @@
 + In case of changes to the environment (e.g. organizational structure, location, changes to regulations), reassessment is carried out in a timely manner.</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -1695,6 +1886,11 @@
 + The results of the conducted reviews are recorded and retained.</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1714,6 +1910,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>+ A plan for content and framework conditions (time schedule, scope, controls) of the reviews to be conducted is provided.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -1743,6 +1944,11 @@
   - Results of internal audits are tracked within the ISMS structures</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>SGA</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -1782,6 +1988,11 @@
 + Measures for correcting potential deviations are initiated and pursued.</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1803,6 +2014,11 @@
           <t>+ The results of conducted reviews are documented and reported to the management of the organization.</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1823,6 +2039,11 @@
         <is>
           <t>+ In case of fundamental changes, audits are conducted by an independent and appropriately qualified entity (i.e., external entities or special internal departments which are objective, competent and free from undue influence (independent)
   - Findings and implementation of corrective actions is tracked by the independent entity.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SGA</t>
         </is>
       </c>
     </row>
@@ -1884,6 +2105,11 @@
   - Events and observations related to suppliers and other business partners (e.g., any incidents that can have negative effect on the security of own organization)
 + Adequate mechanisms based on perceived risks to report security events are defined, implemented, and known to all relevant potential reporters
 + Adequate channels for communication with event reporters exist.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -1914,6 +2140,11 @@
 + A feedback procedure to reporters is established.</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1933,6 +2164,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>+ Tests and exercises of event and observation reporting are conducted regularly. (C, I, A)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>very_high</t>
         </is>
       </c>
     </row>
@@ -1975,6 +2211,11 @@
 + An adequate reaction to reported security events is ensured.
 + Lessons learned are incorporated into continuous improvement.
 </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -2003,6 +2244,11 @@
   - Absence-management
 + A strategy for filing official reports and searching prosecution of potentially criminally relevant aspects of security incidents exists. (C, I, A)
 </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -2042,6 +2288,11 @@
   - The need for reporting according to own reporting procedures</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2065,6 +2316,11 @@
   - Exercise or simulation include escalation mechanisms</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>very_high</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2084,6 +2340,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>+ Standard mechanisms to report and track relevant security events are established.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>SGA</t>
         </is>
       </c>
     </row>
@@ -2126,6 +2387,11 @@
   - The required resources are available.
 + Responsibilities and authority for crisis management within the organization are defined, documented, and assigned.
 + The responsible employees are defined and qualified for their task.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -2170,6 +2436,11 @@
 + Crisis planning is reviewed and updated regularly.</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2208,6 +2479,11 @@
 + Spot based testing of crisis planning is conducted ((e.g., simulation, table-top-exercises involving key personnel) (A)</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2227,6 +2503,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>+ Crisis exercises and simulations involving all relevant persons, decision makers are conducted regularly. (A)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>very_high</t>
         </is>
       </c>
     </row>
@@ -2286,6 +2567,11 @@
 + The identity of potential employees is verified (e.g. checking identity documents).</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2306,6 +2592,11 @@
         <is>
           <t>+ The personal suitability of potential employees is verified by means of simple methods (e.g. job interview).
 + An extended suitability verification depending on the respective work field and job is conducted. (e.g. assessment centre, psychological analysis, checking of references, certificates and diploma, checking of certificates of conduct, checking of professional and private background).</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -2347,6 +2638,11 @@
 + An obligation to comply with the information security policies is in effect.</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2368,6 +2664,11 @@
           <t>+ A non-disclosure obligation beyond the employment contract or order is in effect.
 + Information security aspects are considered in the employment contracts of the staff.
 + A procedure for handling violations of said obligations is described.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -2406,6 +2707,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>+ Employees are trained and made aware.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -2441,6 +2747,11 @@
 + Contact persons for information security are known to employees.</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -2484,6 +2795,11 @@
 + The organization’s network is accessed via a secured connection (e.g. VPN) and strong authentication.</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2508,6 +2824,11 @@
 + Employee awareness.</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2527,6 +2848,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>+ Protective measures against overhearing and viewing are implemented. (C)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -2605,6 +2931,11 @@
 + The code of conduct for security zones is known to all persons involved.</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2630,6 +2961,11 @@
 + External properties used for storing and processing information assets are considered in the security zone concept (e.g. storage rooms, garages, workshops, test tracks, data processing centres).</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2649,6 +2985,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>+ Protective measures against simple overhearing and viewing are implemented. (C)</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -2727,6 +3068,11 @@
           <t>(must)</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -2765,6 +3111,11 @@
           <t xml:space="preserve">+ The requirements for the handling of supporting assets (e.g. transport, storage, repair, loss, return, disposal) are determined and fulfilled. </t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2784,6 +3135,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>+ Supporting assets are protected. Disposal of supporting assets is conducted in accordance with one of the relevant standards (e.g. ISO 21964, at least Security Level 4). (C)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -2849,6 +3205,11 @@
   - Marking (also considering requirements for use in the presence of customers).</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2871,6 +3232,11 @@
 + Users are informed of missing data protection on mobile devices.</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2891,6 +3257,11 @@
         <is>
           <t>+ General encryption of mobile data storage devices or the information assets stored thereon: (C, I)
   - Where this is technically not feasible, information is protected by similarly effective measures.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -2969,6 +3340,11 @@
   - Handling of loss.</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2990,6 +3366,11 @@
           <t>+ Identification means can be produced under controlled conditions only.</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3010,6 +3391,11 @@
         <is>
           <t>+ The validity of identification means is limited to an appropriate period. (C, I, A)
 + A strategy of blocking or invalidation of identification means in case of loss is prepared and implemented as far as possible. (C, I, A)</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -3051,6 +3437,11 @@
 + State of the art procedures for user authentication are applied.</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3074,6 +3465,11 @@
 + Superior procedures are used for the authentication of privileged user accounts (e.g. Privileged Access Management, two-factor authentication).</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3096,6 +3492,11 @@
 </t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3115,6 +3516,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>+ Before gaining access to data of very high protection needs, users are authenticated by means of strong authentication (e.g. two-factor authentication) according to the state of the art. (C, I)</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>very_high</t>
         </is>
       </c>
     </row>
@@ -3169,6 +3575,11 @@
 + The login information (e.g. passwords) of a personalized user account must be known to the assigned user only. </t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3199,6 +3610,11 @@
 + Interactive login for service accounts (technical accounts) is technically prevented.</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -3258,6 +3674,11 @@
 + The access rights granted for normal and privileged user accounts and technical accounts are reviewed at regular intervals also within IT systems of customers.</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3283,6 +3704,11 @@
 + The access rights of a user account are adapted after the user has changed (e.g. to another field of responsibility).</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3302,6 +3728,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>+ The access rights are approved by the responsible internal Information Officer. (C, I, A)</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -3328,6 +3759,11 @@
 + Existing access rights are regularly reviewed at shorter intervals (e.g. quarterly) (C)</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>very_high</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -3416,6 +3852,11 @@
         <is>
           <t>+ All cryptographic procedures used (e.g. encryption, signature, and hash algorithms, protocols) provide the security required by the respective application field according to the recognized industry standard,
   - to the extent legally feasible.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -3444,6 +3885,11 @@
 + An emergency process for restoring key material is established.</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3463,6 +3909,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>+ Key sovereignty requirements (particularly in case of external processing) are determined and fulfilled. (C, I)</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -3505,6 +3956,11 @@
 + Measures for the protection of transferred contents against unauthorized access are implemented.</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3528,6 +3984,11 @@
 + Remote access connections are verified to possess adequate security features (e.g., encryption, granting and termination of access) and capabilities.</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3550,6 +4011,11 @@
   - Where encryption is not feasible, information must be protected by similarly effective measures.</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3569,6 +4035,11 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>+ Information is transported or transferred in content-encrypted form. (C)</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>very_high</t>
         </is>
       </c>
     </row>
@@ -3626,6 +4097,11 @@
           <t>+ Information security requirements for changes to the organization, business processes, IT systems are determined and applied.</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3650,6 +4126,11 @@
 + Procedures for fallback in fault cases are considered.</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3669,6 +4150,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>+ Compliance with the information security requirements is verified during and after the changes are applied. (C, I, A)</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -3708,6 +4194,11 @@
         <is>
           <t>+ The IT systems have been subjected to risk assessment in order to determine the necessity of their separation into development, testing and operational systems.
 + A segmentation is implemented based on the results of risk analysis.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -3734,6 +4225,11 @@
   - Use of different user profiles for development, testing, and operational systems.</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -3771,6 +4267,11 @@
         <is>
           <t>+ Requirements for protection against malware are determined.
 + Technical and organizational measures for protection against malware are defined and implemented.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -3803,6 +4304,11 @@
 + For IT systems operated without the use of malware protection software, alternative measures (e.g. special resilience measures, few services, no active users, network isolation) are implemented. </t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -3845,6 +4351,11 @@
 + Event logs are checked regularly for rule violations and noticeable problems in compliance with the permissible legal and organizational provisions.</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3868,6 +4379,11 @@
 + Adequate monitoring and recording of any actions on the network that are relevant to information security are established.</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3890,6 +4406,11 @@
 + Cases of access during connection and disconnection of external networks (e.g. remote maintenance) are logged. (C, I, A)</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3909,6 +4430,11 @@
       <c r="E151" t="inlineStr">
         <is>
           <t>+ Logging of any access to data of very high protection needs as far as technically feasible and as permissible according to legal and organizational provisions. (C, I)</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>very_high</t>
         </is>
       </c>
     </row>
@@ -3950,6 +4476,11 @@
 + Potentially affected IT systems and software are identified, assessed and any vulnerabilities are addressed.</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3971,6 +4502,11 @@
           <t>+ An adequate patch management is defined and implemented (e.g. patch testing and installation).
 + Risk minimizing measures are implemented, as necessary.
 + Successful installation of patches is verified in an appropriate manner.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -4049,6 +4585,11 @@
 + Measures are derived from the results.</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4075,6 +4616,11 @@
 + Within a reasonable period following completion of the audit, a report is prepared.</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4096,6 +4642,11 @@
           <t>+ For critical IT systems or services, additional system or service audit requirements have been identified and are fulfilled (e.g., service specific tests and tools and/or human penetration tests, risk-based time intervals) (A)</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4116,6 +4667,11 @@
         <is>
           <t>+ IT systems and services are regularly scanned for vulnerabilities. (A)
       - Suitable protective measures must be implemented for systems and services that may not be scanned.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>very_high</t>
         </is>
       </c>
     </row>
@@ -4156,6 +4712,11 @@
         <is>
           <t>+ Requirements for the management and control of networks are determined and fulfilled.
 + Requirements regarding network segmentation are determined and fulfilled.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -4190,6 +4751,11 @@
   - Detection and prevention of data loss/leakage</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4214,6 +4780,11 @@
   - Specific risks (e.g. wireless and remote access)</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -4251,6 +4822,11 @@
         <is>
           <t>+ Critical IT services are identified, and business impact is considered.
 + Requirements and responsibilities for continuity and recovery of those IT services are known to relevant stakeholders and fulfilled.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -4286,6 +4862,11 @@
 + Continuity planning is regularly reviewed and updated</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4313,6 +4894,11 @@
   - Backups are protected against unauthorized access by malicious software or operators (C, I)</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4338,6 +4924,11 @@
 + Continuity planning is tested regularly. Tests and any lessons learned are documented. (I, A)</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>very_high</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -4378,6 +4969,11 @@
 + Recovery concepts exist for relevant IT services.</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4399,6 +4995,11 @@
           <t xml:space="preserve">+ A backup and recovery concept exists for each relevant IT service.
   - Dependencies between IT services and the sequence for recovery are considered.
 </t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -4429,6 +5030,11 @@
   - Appropriate spatial redundancy (e.g., separate room, separate fire  section, separate datacentre, separate site).</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4450,6 +5056,11 @@
           <t>+ (Additional) Backups are performed via offline procedures, immutable backups or by using isolated IAM technology. (I, A)
 + Restore procedures are technically tested in a methodical way at regular intervals. (I, A)
 + Geographical redundancy is considered in data backup and recovery concepts. (A)</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>very_high</t>
         </is>
       </c>
     </row>
@@ -4508,6 +5119,11 @@
 + The information security requirements associated with the acquisition or extension of IT systems and IT components are determined and considered.
 + Information security requirements associated with changes to developed IT systems are considered.
 + System approval tests are carried out under consideration of the information security requirements.</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -4541,6 +5157,11 @@
   - Case-related specifications for the generation of test data are defined.</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4565,6 +5186,11 @@
    - or at regular intervals</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>very_high</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -4603,6 +5229,11 @@
           <t>+ Requirements regarding the information security of network services are determined and fulfilled.</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4626,6 +5257,11 @@
 + Adequate redundancy solutions are implemented.</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4645,6 +5281,11 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>+ Procedures for monitoring the quality of network traffic (e.g. traffic flow analyses, availability measurements) are defined and carried out. (A)</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -4685,6 +5326,11 @@
           <t>+ A procedure for the return and secure removal of information assets from each external IT service is defined and implemented.</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4704,6 +5350,11 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>+ A description of the termination process is given, adapted to any changes, and contractually regulated.</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -4744,6 +5395,11 @@
           <t>+ Effective segregation (e.g. segregation of clients) prevents access to own information by unauthorized users of other organizations.</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4765,6 +5421,11 @@
           <t>+ The provider’s segregation concept is documented and adapted to any changes. The following aspects are considered:
   - Separation of data, functions, customer-specific software, operating system, storage system and network,
   - Risk assessment for the operation of external software within the shared environment.</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -4826,6 +5487,11 @@
 + Compliance with contractual agreements is verified.</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4848,6 +5514,11 @@
 + Service reports and documents by contractors and cooperation partners are reviewed.</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4867,6 +5538,11 @@
       <c r="E194" t="inlineStr">
         <is>
           <t>+ Proof is provided that the information security level of the supplier is adequate for the protection needs of the information (e.g. certificate, attestation, internal audit). (C, I, A)</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -4938,6 +5614,11 @@
 + The requirements and procedures for the use of non-disclosure agreements and the handling of information requiring protection are reviewed at regular intervals.</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4968,6 +5649,11 @@
 + A process for monitoring the validity period of temporary non-disclosure agreements and initiating their extension in due time is defined and implemented.</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -5024,6 +5710,11 @@
 + Policies regarding compliance with the provisions are defined, implemented, and communicated to the responsible persons.</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5043,6 +5734,11 @@
       <c r="E202" t="inlineStr">
         <is>
           <t>+ The integrity of records in accordance with the legal, regulatory, or contractual provisions and business requirements is considered.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -5108,6 +5804,11 @@
 + Processes and procedures for the protection of personally identifiable data are considered in the information security management system.</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -5186,6 +5887,11 @@
  - client segregation.</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5205,6 +5911,11 @@
       <c r="E210" t="inlineStr">
         <is>
           <t>+ Perimeter security.</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -5243,6 +5954,11 @@
       <c r="E212" t="inlineStr">
         <is>
           <t>+ Unauthorized access to properties is not possible.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -5269,6 +5985,11 @@
   - natural barriers (growth, vegetation).</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
@@ -5307,6 +6028,11 @@
           <t>+ Unauthorized access to buildings/security areas is not possible.</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5327,6 +6053,11 @@
         <is>
           <t>+ Solid construction (masonry, concrete, reinforced concrete, or prestressed concrete).
 + Windows and doors in the outer skin are to be built in compliance with RC2 or better.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>should</t>
         </is>
       </c>
     </row>
@@ -5367,6 +6098,11 @@
           <t>+ Unauthorized viewing of new developments needing high or very high protection is not possible.</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5389,6 +6125,11 @@
 + View into defined security areas through open doors/gates/windows is prevented. </t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5402,12 +6143,17 @@
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>(for high protection needs)</t>
+          <t>(for vehicles classified as requiring protection)</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>+ The spatial situation is also suitable for protecting vehicles classified as requiring protection against unauthorized view.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>vehicle</t>
         </is>
       </c>
     </row>
@@ -5451,6 +6197,11 @@
   - personal access control including documentation.</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5464,12 +6215,17 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>(for high protection needs)</t>
+          <t>(for vehicles classified as requiring protection)</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
           <t>+ The spatial situation is also suitable for protecting vehicles classified as requiring protection against unauthorized access.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>vehicle</t>
         </is>
       </c>
     </row>
@@ -5514,6 +6270,11 @@
 + Timely alarm processing is ensured.</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
@@ -5555,6 +6316,11 @@
 + Country-specific legal provisions regarding data protection are to be observed.</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
@@ -5596,6 +6362,11 @@
   - where segregation is not in effect, explicit approval by the customer is required.</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5609,12 +6380,17 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>(for high protection needs)</t>
+          <t>(for vehicles classified as requiring protection)</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
           <t>+ The spatial situation is also suitable for implementing client segregation for vehicles classified as requiring protection.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>vehicle</t>
         </is>
       </c>
     </row>
@@ -5673,6 +6449,11 @@
   - between contractor and customer (company level),
   - with all employees and project members (personal obligation).
 + Country-specific legal provisions regarding data protection are to be observed.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -5716,6 +6497,11 @@
   - with all employees and project members of the subcontractor (personal obligation).
 + Ensuring compliance with the security requirements of the actual customer (proof is obtained).
 + Proof of the subcontractor’s compliance with minimum requirements for prototype protection (e.g., certificate, attestation) is provided.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -5762,6 +6548,11 @@
 + The training concept for prototype protection is an integral part of the general training concept (see also control question 2.1.3 Information Security).</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr"/>
@@ -5802,6 +6593,11 @@
 + The requirements are considered as a requirement regarding the information security of the project (see Controls 1.2.3 and 7.1.1 Information Security).</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr"/>
@@ -5840,6 +6636,11 @@
           <t>+ Responsibilities for access authorization are clearly specified and documented.
 + A process for new assignments, changes and revocations of access rights is in place.
 + Code of conduct in case of the loss/theft of access control means.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -5884,6 +6685,11 @@
 + Secured transmission/shipping of image material to authorized recipients only.</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
@@ -5921,6 +6727,11 @@
         <is>
           <t>+ Specification for carrying along (e.g., sealed/unsealed, etc.).
 + Specification for use (e.g., phone calls, photography, etc.).</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -5981,6 +6792,11 @@
 + A process for reporting any security-relevant events to the customer is described and implemented.</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
@@ -6017,6 +6833,11 @@
       <c r="E250" t="inlineStr">
         <is>
           <t>+ The customer-specific requirements for parking/storage are verifiably known and observed.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -6074,6 +6895,11 @@
           <t>+ The requirements for using the respective camouflage are known to the project members.
 + Any changes to the camouflage are made upon documented agreement with the customer.
 + A process for the immediate reporting of any damages to the camouflage is described and implemented.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -6118,6 +6944,11 @@
   - customer-defined protective measures These are implemented.</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
@@ -6156,6 +6987,11 @@
           <t>+ A process for obtaining customer-specific requirements for the operation of test vehicles classified as requiring protection on public roads is described and implemented.
 + Protective measures defined by the customer are known and observed.
 + The code of conduct in case of special incidents (e.g., breakdown, accident, theft...) is known and observed.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -6214,6 +7050,11 @@
 + Established and customer-approved security concepts (organizationally, technically,
 staff-related).
 + Code of conduct in case of special incidents.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -6258,6 +7099,11 @@
 + Code of conduct in case of special incidents. </t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -6329,6 +7175,11 @@
         <is>
           <t xml:space="preserve">+ A policy is created, regularly updated, and approved by the organization's management.
 </t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -6398,6 +7249,11 @@
  - support of the data protection officer by data protection coordinators in the companies organizational units, depending on the company size (e.g. marketing, sales, personnel, logistics, development, etc.)</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr"/>
@@ -6455,6 +7311,11 @@
   - There is a process description / sequence description with defined responsibilities.</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr"/>
@@ -6512,6 +7373,11 @@
   - Responsibilities/tasks and support possibilities in the context of data protection impact assessments are defined and known.</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
@@ -6568,6 +7434,11 @@
   - Ensuring the consent or the right of objection of the person responsible for subcontracting</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr"/>
@@ -6606,6 +7477,11 @@
           <t>+ Applicable contractual obligations to clients are passed on to subcontractors and cooperation partners (sub processors).
 + Compliance with contractual agreements is reviewed.
   - Contact details of the contact persons of the subcontractor are available and up to date.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -6649,6 +7525,11 @@
 + In the case of data transfers to third countries, it is determined whether the consent of the person responsible is to be obtained for each transfer to third countries.</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
@@ -6704,6 +7585,11 @@
           <t>+ Requests from data subjects are processed in a timely manner.
   - Procedures are in place to assist the controller in responding to data subject requests.
   - Employees are trained to the effect that they must immediately contact the respective person responsible in the event of an incoming request from a data subject and coordinate the further procedure with this person.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -6750,6 +7636,11 @@
   - Support of the respective controller in the processing of data protection incidents</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr"/>
@@ -6806,6 +7697,11 @@
   - The obligation is documented</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr"/>
@@ -6844,6 +7740,11 @@
           <t>+ Employees are trained and sensitized.
   - Scope, frequency, and content of the training is determined according to the protection needs of the data
   - Employees in critical areas (e.g. IT administrators) are instructed and trained specifically for their work (e.g. specific training courses or instructions, short videos, etc.).</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>must</t>
         </is>
       </c>
     </row>
@@ -6905,6 +7806,275 @@
  - Data is separated by client and specific order or project</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Incomplete</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A process is not available, not followed or not suitable for achieving the objective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Performed</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>An undocumented or incompletely documented process is followed and indicators exist that it achieves its objective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Managed</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A process achieving its objectives is followed. Process documentation and process implementation evidence are available.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Established</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A standard process integrated into the overall system is followed. Dependencies on other processes are documented and suitable interfaces are created. Evidence exists that the process has been used sustainably and actively over an extended period.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Predictable</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>An established process is followed. The effectiveness of the process is continually monitored by collecting key figures. Limit values are defined at which the process is considered to be insufficiently effective and requires adjustment. (Key Performance Indicators)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Optimizing</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A predictable process with continual improvement as a major objective is followed. Improvement is actively advanced by dedicated resources.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ref_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Requirements (must)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Strict requirements without any exemptions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Requirements (should)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Must be implemented by the organization. In certain circumstances, however, there may be a valid justification for non-compliance with these requirements. In case of any deviation, its effects must be understood by the organization and it must be plausibly justified.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>In case of high protection needs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Must additionally be met if the tested subject has high protection needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>very_high</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>In case of very high protection needs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Must additionally be met if the tested subject has very high protection needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SGA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>For Simplified Group Assessments (SGA)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A simplified way to audit very large organizations with a high maturity. An example is the TISAX Simplified Group Assessment mechanism that is an option for TISAX Assessments of an assessment scope with a large number of sites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>vehicle</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>For vehicles classified as requiring protection</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Protects physical prototypes which are classified as requiring protection. Prototypes include vehicles, components and parts. The owner of the intellectual property for the prototype is considered the owner of the prototype. The owner's commissioning department is responsible for classifying the protection need of a prototype. For prototypes classified as requiring high or very high protection, the minimum requirements for prototype protection must be applied.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
